--- a/Document/컨셉/컨셉 스토리 문서.xlsx
+++ b/Document/컨셉/컨셉 스토리 문서.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
     <sheet name="캐릭터 컨셉" sheetId="2" r:id="rId2"/>
     <sheet name="몬스터" sheetId="3" r:id="rId3"/>
     <sheet name="배경 설정" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="집단 배경 설정" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t xml:space="preserve">작성날짜 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -206,6 +207,102 @@
   </si>
   <si>
     <t>미정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSA: PUBLIC SERVICE AGENT[공익 근무요원]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공익 근무요원으로 군 복무 대신 대체로 발령난 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람들로 이루어 져있으며 국가가 운영하는 주민센터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에서부터 경찰서 까지 많은곳에 분포해 있으며</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다양한 일과 복장을 지급받고 2년간 일을 하게 됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수트가 보급됨에 따라 공익들도 치안 유지에 파견되게</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>되었고 하는 일은 순찰중 상황이 일어나면 경보를 올리고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>근처의 드론을 지원 받고 그것으로도 힘든 상황이면 경찰서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에 경보를 보내 추가지원을 받을 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 직업이 아닌만큼 효율이 좋지 못하며 여러 일을</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리하고 있지만 주로 잡무와 귀찮은 일을 대신 하며</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>법으로 퇴근시간이 보장되기 때문에 6시에 칼퇴급 합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상황이 발생후 출동하면 자주 늦기 때문에 고안됨 치안 유지 로봇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러 종류가 존재하며 범죄자를 최대한 기절시키는 방향으로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O를 빼고 CPR도 생각중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제압하며 드론 1기로 안된다고 판단되면 추가 지원을 요청하며</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평소엔 경보가아닌 경고만 주고 이동합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">현재는 쉬운 신고와 빠른 제압으로 인하여 범죄율이 급감하였고 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과가 입증되었기 때문에 많은 곳에 도입되어 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 모든 로봇이 무장을 한것은 아니며 길을 막거나 감시용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇들고 존재합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPOR: CityPublicOrder Robot [도시치안유지 로봇CPOR]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>집단 배경설정 추가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -213,7 +310,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,8 +342,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,8 +377,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -301,6 +420,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -310,7 +546,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -340,6 +576,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -624,7 +911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -663,9 +950,15 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
@@ -702,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -819,7 +1112,7 @@
   <dimension ref="B2:C16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -914,10 +1207,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -926,13 +1222,300 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="2" max="6" width="10.25" customWidth="1"/>
+    <col min="8" max="13" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="24"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="H3" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="H4" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="18"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="H5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="H6" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="18"/>
+    </row>
+    <row r="7" spans="2:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="H8" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="H9" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
+    </row>
+    <row r="12" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="H13" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="18"/>
+    </row>
+    <row r="14" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="H14" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="18"/>
+    </row>
+    <row r="15" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="18"/>
+    </row>
+    <row r="16" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="21"/>
+    </row>
+    <row r="20" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/컨셉/컨셉 스토리 문서.xlsx
+++ b/Document/컨셉/컨셉 스토리 문서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\대학\3학년 1학기\팀 프로젝트\기획서\컨셉 기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\Gorilla-box\Document\컨셉\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -86,10 +86,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>미정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>장난기 많음, 말괄량이, 자신만만, 웃는 상</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -206,6 +202,10 @@
   </si>
   <si>
     <t>미정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태희</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -624,7 +624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -731,7 +731,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
@@ -739,7 +739,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
@@ -747,65 +747,65 @@
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -831,7 +831,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
@@ -844,63 +844,63 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
